--- a/result/gibbs_sampler/result_gibbs_main_P05.xlsx
+++ b/result/gibbs_sampler/result_gibbs_main_P05.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21180" yWindow="7920" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="3060" yWindow="3040" windowWidth="34660" windowHeight="19960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test1.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
